--- a/data/trans_dic/P5_4-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P5_4-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que disfruta de terraza en su vivienda</t>
+          <t>Población que disfruta de terraza en su vivienda (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>40,05%</t>
+          <t>34,84%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>40,47%</t>
+          <t>35,41%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>40,57%</t>
+          <t>42,75%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>39,92%</t>
+          <t>41,2%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>40,33%</t>
+          <t>39,14%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>40,17%</t>
+          <t>38,55%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>33,14; 45,67</t>
+          <t>27,19; 42,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>33,6; 46,69</t>
+          <t>26,91; 43,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>35,77; 45,96</t>
+          <t>36,3; 50,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>34,8; 45,43</t>
+          <t>35,18; 48,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>36,49; 44,48</t>
+          <t>33,69; 44,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>36,22; 44,48</t>
+          <t>33,06; 43,77</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>42,92%</t>
+          <t>43,05%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>45,9%</t>
+          <t>44,55%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>34,46%</t>
+          <t>33,89%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>36,56%</t>
+          <t>34,66%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>38,38%</t>
+          <t>38,16%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>40,97%</t>
+          <t>39,19%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>36,33; 49,92</t>
+          <t>34,24; 51,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>37,94; 53,96</t>
+          <t>35,38; 53,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>28,66; 41,02</t>
+          <t>25,17; 41,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>30,99; 43,87</t>
+          <t>25,83; 41,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>33,89; 43,21</t>
+          <t>32,2; 44,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>36,06; 46,64</t>
+          <t>33,13; 45,24</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>43,46%</t>
+          <t>44,93%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>41,79%</t>
+          <t>41,23%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>36,47%</t>
+          <t>31,31%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>35,26%</t>
+          <t>30,94%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>40,16%</t>
+          <t>38,21%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>38,65%</t>
+          <t>36,1%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>27,79; 58,46</t>
+          <t>19,5; 68,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>25,89; 56,81</t>
+          <t>17,12; 65,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>24,32; 47,9</t>
+          <t>18,92; 48,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>23,37; 46,77</t>
+          <t>18,88; 48,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>30,62; 50,69</t>
+          <t>23,16; 50,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>29,34; 49,53</t>
+          <t>21,29; 48,35</t>
         </is>
       </c>
     </row>
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>41,6%</t>
+          <t>39,29%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>42,81%</t>
+          <t>39,76%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>37,73%</t>
+          <t>38,09%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>38,11%</t>
+          <t>37,51%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>39,54%</t>
+          <t>38,65%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>40,33%</t>
+          <t>38,55%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>37,28; 46,64</t>
+          <t>34,05; 45,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>38,07; 48,41</t>
+          <t>33,9; 46,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>33,61; 41,66</t>
+          <t>33,68; 43,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>34,4; 41,98</t>
+          <t>33,04; 42,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>36,45; 42,43</t>
+          <t>34,86; 42,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>37,31; 43,7</t>
+          <t>34,93; 42,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -921,4 +929,595 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que disfruta de terraza en su vivienda (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>127415</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>152304</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>186111</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>209638</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>313527</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>361943</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>99428; 154382</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>115725; 185021</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>158041; 219993</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>179021; 248427</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>269927; 355138</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>310426; 410937</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>131190</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>160130</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>118661</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>147414</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>249851</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>307544</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>104337; 158354</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>127145; 193233</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>88117; 143732</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>109875; 177148</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>210869; 290048</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>260023; 355044</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>38112</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>41964</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>25865</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>31296</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>63977</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>73260</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>16540; 58265</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>17423; 66807</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>15628; 40443</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>19104; 48734</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>38774; 84272</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>43202; 98114</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>284.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>285.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>296717</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>354398</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>330638</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>388348</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>627355</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>742746</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>257135; 346663</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>302142; 414444</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>292349; 374975</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>342101; 441554</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>565889; 688936</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>672993; 812464</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>